--- a/data/pca/factorExposure/factorExposure_2018-12-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1035968754436652</v>
+        <v>0.06696375823996997</v>
       </c>
       <c r="C2">
-        <v>-0.02311607004652595</v>
+        <v>0.03137857742425354</v>
       </c>
       <c r="D2">
-        <v>-0.06572184549004169</v>
+        <v>0.02206817137315578</v>
       </c>
       <c r="E2">
-        <v>-0.02220294103747492</v>
+        <v>-0.03686917090326569</v>
       </c>
       <c r="F2">
-        <v>0.1275640793049947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1312351536632557</v>
+      </c>
+      <c r="G2">
+        <v>0.05400441541760088</v>
+      </c>
+      <c r="H2">
+        <v>-0.05481170822498069</v>
+      </c>
+      <c r="I2">
+        <v>0.1110642432239938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2108326312771346</v>
+        <v>0.1526854205075716</v>
       </c>
       <c r="C3">
-        <v>0.1275252894834572</v>
+        <v>0.1060669007979235</v>
       </c>
       <c r="D3">
-        <v>-0.1006375855114515</v>
+        <v>0.003201441123721304</v>
       </c>
       <c r="E3">
-        <v>-0.001235473692707085</v>
+        <v>0.02492973846858199</v>
       </c>
       <c r="F3">
-        <v>0.3845063643590753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.4061483708925697</v>
+      </c>
+      <c r="G3">
+        <v>0.2571219775096246</v>
+      </c>
+      <c r="H3">
+        <v>-0.09129265506463935</v>
+      </c>
+      <c r="I3">
+        <v>0.3606788260383677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0923747099990445</v>
+        <v>0.06934899629146485</v>
       </c>
       <c r="C4">
-        <v>0.01778762126653884</v>
+        <v>0.05065612163559852</v>
       </c>
       <c r="D4">
-        <v>-0.06317182986753891</v>
+        <v>-0.01215045080332211</v>
       </c>
       <c r="E4">
-        <v>0.02921510512748797</v>
+        <v>-0.0381762863736906</v>
       </c>
       <c r="F4">
-        <v>0.07333968127481209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.08000214411258773</v>
+      </c>
+      <c r="G4">
+        <v>0.02266012711719127</v>
+      </c>
+      <c r="H4">
+        <v>-0.04634840579594275</v>
+      </c>
+      <c r="I4">
+        <v>0.06142149463666247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02637092409504035</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01167546977760211</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.003185321120629238</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006049565084413821</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.006209155283941367</v>
+      </c>
+      <c r="G6">
+        <v>-0.02421066793915991</v>
+      </c>
+      <c r="H6">
+        <v>0.01455636209120347</v>
+      </c>
+      <c r="I6">
+        <v>0.006369471876300466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04212683773326076</v>
+        <v>0.03385059611239169</v>
       </c>
       <c r="C7">
-        <v>-0.0009383809205328745</v>
+        <v>0.02155058752809186</v>
       </c>
       <c r="D7">
-        <v>-0.04601535222099376</v>
+        <v>-0.03502234058720859</v>
       </c>
       <c r="E7">
-        <v>-0.005323728408680323</v>
+        <v>-0.02681590558148713</v>
       </c>
       <c r="F7">
-        <v>0.07588168258026472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0517855081363767</v>
+      </c>
+      <c r="G7">
+        <v>0.04871219946508975</v>
+      </c>
+      <c r="H7">
+        <v>0.0008170196788103232</v>
+      </c>
+      <c r="I7">
+        <v>0.03851255413702685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05469565328463956</v>
+        <v>0.02538224785491612</v>
       </c>
       <c r="C8">
-        <v>0.04034194820387214</v>
+        <v>0.05337986784117662</v>
       </c>
       <c r="D8">
-        <v>-0.04753644307471202</v>
+        <v>-0.008456265588982426</v>
       </c>
       <c r="E8">
-        <v>0.02452986400087887</v>
+        <v>-0.01557892948340682</v>
       </c>
       <c r="F8">
-        <v>0.07145366115721118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07670207492839279</v>
+      </c>
+      <c r="G8">
+        <v>0.04456122096523741</v>
+      </c>
+      <c r="H8">
+        <v>-0.03587257546827766</v>
+      </c>
+      <c r="I8">
+        <v>0.06285745524622342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07682757844562747</v>
+        <v>0.05837068325700109</v>
       </c>
       <c r="C9">
-        <v>0.006921209196222863</v>
+        <v>0.04375408736637863</v>
       </c>
       <c r="D9">
-        <v>-0.06021502056380901</v>
+        <v>-0.01505498306781252</v>
       </c>
       <c r="E9">
-        <v>0.0424688708679901</v>
+        <v>-0.03373589490825601</v>
       </c>
       <c r="F9">
-        <v>0.06023932181327993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.08049564989555665</v>
+      </c>
+      <c r="G9">
+        <v>0.01893415754762831</v>
+      </c>
+      <c r="H9">
+        <v>-0.04423608043424892</v>
+      </c>
+      <c r="I9">
+        <v>0.03797875401581879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03467277769109515</v>
+        <v>0.04227903055494914</v>
       </c>
       <c r="C10">
-        <v>-0.1181117845862482</v>
+        <v>-0.1651101868383663</v>
       </c>
       <c r="D10">
-        <v>0.1084480546340671</v>
+        <v>0.003901688826538242</v>
       </c>
       <c r="E10">
-        <v>-0.04183644919107671</v>
+        <v>0.02379733572243158</v>
       </c>
       <c r="F10">
-        <v>0.06835620258000534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06604570834857901</v>
+      </c>
+      <c r="G10">
+        <v>0.0238704501557941</v>
+      </c>
+      <c r="H10">
+        <v>-0.03716318366405067</v>
+      </c>
+      <c r="I10">
+        <v>0.03179990419422343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05638693621321125</v>
+        <v>0.04704463235533157</v>
       </c>
       <c r="C11">
-        <v>0.01206988236942161</v>
+        <v>0.0331648547601248</v>
       </c>
       <c r="D11">
-        <v>-0.01854854097305873</v>
+        <v>0.007762911101581455</v>
       </c>
       <c r="E11">
-        <v>-0.00678560509529031</v>
+        <v>-0.007540506003513457</v>
       </c>
       <c r="F11">
-        <v>0.04741513385894715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03899060981158996</v>
+      </c>
+      <c r="G11">
+        <v>-0.002139225407071385</v>
+      </c>
+      <c r="H11">
+        <v>-0.01466861823720967</v>
+      </c>
+      <c r="I11">
+        <v>0.03711544601492982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04513840141966454</v>
+        <v>0.04276036246467991</v>
       </c>
       <c r="C12">
-        <v>0.01492852685631217</v>
+        <v>0.03194751141883642</v>
       </c>
       <c r="D12">
-        <v>-0.01750313369136051</v>
+        <v>-0.004096006372126565</v>
       </c>
       <c r="E12">
-        <v>0.01079684716733669</v>
+        <v>-0.008272668177244846</v>
       </c>
       <c r="F12">
-        <v>0.03543632246154397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01569180664307632</v>
+      </c>
+      <c r="G12">
+        <v>0.001684712913720323</v>
+      </c>
+      <c r="H12">
+        <v>-0.00593830255483324</v>
+      </c>
+      <c r="I12">
+        <v>0.02251488264751283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0566401839255214</v>
+        <v>0.04100187671601315</v>
       </c>
       <c r="C13">
-        <v>0.01301173078405519</v>
+        <v>0.02664170923866459</v>
       </c>
       <c r="D13">
-        <v>-0.03009638330111593</v>
+        <v>0.01725144127074158</v>
       </c>
       <c r="E13">
-        <v>-0.031773222200822</v>
+        <v>-0.007945640674818288</v>
       </c>
       <c r="F13">
-        <v>0.1100894066611633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1014567743266797</v>
+      </c>
+      <c r="G13">
+        <v>0.02866771952060701</v>
+      </c>
+      <c r="H13">
+        <v>-0.03463822109653002</v>
+      </c>
+      <c r="I13">
+        <v>0.06910439332391201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03239761271894164</v>
+        <v>0.02521772398888661</v>
       </c>
       <c r="C14">
-        <v>0.005704307588238083</v>
+        <v>0.02423608827504613</v>
       </c>
       <c r="D14">
-        <v>-0.04405261068420926</v>
+        <v>-0.004244445665416401</v>
       </c>
       <c r="E14">
-        <v>0.004674501334907851</v>
+        <v>-0.02783368337195755</v>
       </c>
       <c r="F14">
-        <v>0.03017260918487171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.04045236347938309</v>
+      </c>
+      <c r="G14">
+        <v>0.0531783690926013</v>
+      </c>
+      <c r="H14">
+        <v>-0.01491671716129552</v>
+      </c>
+      <c r="I14">
+        <v>0.0151287038578651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04787792056831621</v>
+        <v>0.04090762435184596</v>
       </c>
       <c r="C16">
-        <v>0.01989400997175984</v>
+        <v>0.03530816206624558</v>
       </c>
       <c r="D16">
-        <v>-0.01647298285936868</v>
+        <v>0.002221425078012875</v>
       </c>
       <c r="E16">
-        <v>-0.001582159781967315</v>
+        <v>-0.004973214826524397</v>
       </c>
       <c r="F16">
-        <v>0.03873919929461905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03485358635434764</v>
+      </c>
+      <c r="G16">
+        <v>0.004080152695247543</v>
+      </c>
+      <c r="H16">
+        <v>-0.007965464187358653</v>
+      </c>
+      <c r="I16">
+        <v>0.03862799098127185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06660888603678219</v>
+        <v>0.05293403012018302</v>
       </c>
       <c r="C19">
-        <v>0.03535323894461396</v>
+        <v>0.04741218886610119</v>
       </c>
       <c r="D19">
-        <v>-0.03861502162886634</v>
+        <v>0.006687799798305111</v>
       </c>
       <c r="E19">
-        <v>-0.004086319000619059</v>
+        <v>-0.01372432802257106</v>
       </c>
       <c r="F19">
-        <v>0.09982475903413715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09990255467230376</v>
+      </c>
+      <c r="G19">
+        <v>0.0464581281048666</v>
+      </c>
+      <c r="H19">
+        <v>-0.02378300783100136</v>
+      </c>
+      <c r="I19">
+        <v>0.07485808221191917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.031923050716876</v>
+        <v>0.01916681082133069</v>
       </c>
       <c r="C20">
-        <v>0.01303865773911247</v>
+        <v>0.02969082027852137</v>
       </c>
       <c r="D20">
-        <v>-0.05050535078268555</v>
+        <v>-0.003122332061985133</v>
       </c>
       <c r="E20">
-        <v>0.01738552278915895</v>
+        <v>-0.02017759217095792</v>
       </c>
       <c r="F20">
-        <v>0.07108633859080106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06492855626826408</v>
+      </c>
+      <c r="G20">
+        <v>0.06311337835915092</v>
+      </c>
+      <c r="H20">
+        <v>-0.01040148957660154</v>
+      </c>
+      <c r="I20">
+        <v>0.07120107480829908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03371047874122324</v>
+        <v>0.03367095121258586</v>
       </c>
       <c r="C21">
-        <v>0.02992557771901544</v>
+        <v>0.02842803739834335</v>
       </c>
       <c r="D21">
-        <v>-0.02797754014322964</v>
+        <v>-0.009249515903508487</v>
       </c>
       <c r="E21">
-        <v>-0.008963627838997436</v>
+        <v>-0.00399606174009113</v>
       </c>
       <c r="F21">
-        <v>0.09605879851639129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07673461580819163</v>
+      </c>
+      <c r="G21">
+        <v>0.008470067356082115</v>
+      </c>
+      <c r="H21">
+        <v>-0.05147562805782808</v>
+      </c>
+      <c r="I21">
+        <v>0.006755735580161058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04739742223951497</v>
+        <v>0.03959553491246663</v>
       </c>
       <c r="C24">
-        <v>0.0144615998590548</v>
+        <v>0.03111295068845603</v>
       </c>
       <c r="D24">
-        <v>-0.02102817584211675</v>
+        <v>0.001706212202900562</v>
       </c>
       <c r="E24">
-        <v>0.001941812364774691</v>
+        <v>-0.00784518320426834</v>
       </c>
       <c r="F24">
-        <v>0.04976819401871311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03800592548589191</v>
+      </c>
+      <c r="G24">
+        <v>-0.0004517147511966012</v>
+      </c>
+      <c r="H24">
+        <v>-0.009118962115287819</v>
+      </c>
+      <c r="I24">
+        <v>0.04011115272441899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0496500138543071</v>
+        <v>0.04697920211263457</v>
       </c>
       <c r="C25">
-        <v>0.01158211253703353</v>
+        <v>0.02722656267905909</v>
       </c>
       <c r="D25">
-        <v>-0.0178533434001477</v>
+        <v>0.002405200064745058</v>
       </c>
       <c r="E25">
-        <v>0.001111708722707237</v>
+        <v>-0.007916689299457243</v>
       </c>
       <c r="F25">
-        <v>0.04566933195497859</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04460998309636443</v>
+      </c>
+      <c r="G25">
+        <v>-0.006477439493583563</v>
+      </c>
+      <c r="H25">
+        <v>-0.0153755846394098</v>
+      </c>
+      <c r="I25">
+        <v>0.03224407442872197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02820608734778806</v>
+        <v>0.01517279933347981</v>
       </c>
       <c r="C26">
-        <v>0.02555195735423052</v>
+        <v>0.0314180215054547</v>
       </c>
       <c r="D26">
-        <v>-0.03555009936826892</v>
+        <v>0.006344843166965296</v>
       </c>
       <c r="E26">
-        <v>-0.02023474451973407</v>
+        <v>-0.0004876972016250635</v>
       </c>
       <c r="F26">
-        <v>0.03972412323301665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04811267926336855</v>
+      </c>
+      <c r="G26">
+        <v>0.02855281410171208</v>
+      </c>
+      <c r="H26">
+        <v>-0.01168243434499693</v>
+      </c>
+      <c r="I26">
+        <v>0.03383267253942536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1176112564836046</v>
+        <v>0.06892964653586563</v>
       </c>
       <c r="C27">
-        <v>-0.004585064310687597</v>
+        <v>0.02476017723577241</v>
       </c>
       <c r="D27">
-        <v>-0.04586598613486867</v>
+        <v>-0.00090083285029174</v>
       </c>
       <c r="E27">
-        <v>0.02331630975116801</v>
+        <v>-0.02875507290353414</v>
       </c>
       <c r="F27">
-        <v>0.06709178994162127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.05603481176727927</v>
+      </c>
+      <c r="G27">
+        <v>0.02966931564040326</v>
+      </c>
+      <c r="H27">
+        <v>-0.02235833892967505</v>
+      </c>
+      <c r="I27">
+        <v>0.02751526140363305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.03745307729483499</v>
+        <v>0.05820711469433371</v>
       </c>
       <c r="C28">
-        <v>-0.1751302557409838</v>
+        <v>-0.2510168204677046</v>
       </c>
       <c r="D28">
-        <v>0.1772326008914905</v>
+        <v>-0.00351930258518582</v>
       </c>
       <c r="E28">
-        <v>-0.04141246309399718</v>
+        <v>0.0367176827368977</v>
       </c>
       <c r="F28">
-        <v>0.03797034279793429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05210532188223982</v>
+      </c>
+      <c r="G28">
+        <v>0.04695402598693466</v>
+      </c>
+      <c r="H28">
+        <v>-0.0382978682882707</v>
+      </c>
+      <c r="I28">
+        <v>0.05186747136042557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.03062948583998907</v>
+        <v>0.02330428750771157</v>
       </c>
       <c r="C29">
-        <v>0.006257063180724112</v>
+        <v>0.023302712424338</v>
       </c>
       <c r="D29">
-        <v>-0.04237270774045532</v>
+        <v>-0.007374466325032462</v>
       </c>
       <c r="E29">
-        <v>0.01603568248004397</v>
+        <v>-0.02934953336095264</v>
       </c>
       <c r="F29">
-        <v>0.02685545881218521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03694753655291333</v>
+      </c>
+      <c r="G29">
+        <v>0.05280166767268304</v>
+      </c>
+      <c r="H29">
+        <v>-0.01857398832487055</v>
+      </c>
+      <c r="I29">
+        <v>-0.001506121975773769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1106647248299523</v>
+        <v>0.08749256983298866</v>
       </c>
       <c r="C30">
-        <v>-0.003534372759980034</v>
+        <v>0.05013973465951815</v>
       </c>
       <c r="D30">
-        <v>-0.05506304112792473</v>
+        <v>0.04196373447023902</v>
       </c>
       <c r="E30">
-        <v>-0.007680277924900085</v>
+        <v>-0.03278921976688956</v>
       </c>
       <c r="F30">
-        <v>0.1082453758179131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1039030564394858</v>
+      </c>
+      <c r="G30">
+        <v>0.003784652611558373</v>
+      </c>
+      <c r="H30">
+        <v>0.005280588229264136</v>
+      </c>
+      <c r="I30">
+        <v>0.02775576134521087</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06617899293530485</v>
+        <v>0.06022537581177267</v>
       </c>
       <c r="C31">
-        <v>0.004598492009555952</v>
+        <v>0.02377821372745494</v>
       </c>
       <c r="D31">
-        <v>-0.03691936330467712</v>
+        <v>0.01137019017348818</v>
       </c>
       <c r="E31">
-        <v>-0.03235660853666415</v>
+        <v>-0.02293242436718931</v>
       </c>
       <c r="F31">
-        <v>-0.02409440997109777</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001272769749919351</v>
+      </c>
+      <c r="G31">
+        <v>0.04329342520314289</v>
+      </c>
+      <c r="H31">
+        <v>-0.03890248470082022</v>
+      </c>
+      <c r="I31">
+        <v>0.01241416963390802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06705148885826066</v>
+        <v>0.0395442209353051</v>
       </c>
       <c r="C32">
-        <v>0.02223231403810981</v>
+        <v>0.04540547999078871</v>
       </c>
       <c r="D32">
-        <v>-0.04524562699394353</v>
+        <v>-0.01351019196786355</v>
       </c>
       <c r="E32">
-        <v>0.01189666094881844</v>
+        <v>-0.03180587140469436</v>
       </c>
       <c r="F32">
-        <v>0.09974902748003753</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08351624335764297</v>
+      </c>
+      <c r="G32">
+        <v>0.02979346152665484</v>
+      </c>
+      <c r="H32">
+        <v>-0.02862840161061348</v>
+      </c>
+      <c r="I32">
+        <v>0.05947146866602858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06616330905987695</v>
+        <v>0.05249482163243598</v>
       </c>
       <c r="C33">
-        <v>0.03922087744230715</v>
+        <v>0.05510034590927178</v>
       </c>
       <c r="D33">
-        <v>-0.05787998209989219</v>
+        <v>0.02265462148774636</v>
       </c>
       <c r="E33">
-        <v>-0.01299353695955422</v>
+        <v>-0.00512343089963414</v>
       </c>
       <c r="F33">
-        <v>0.06935964132930894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07662150079267799</v>
+      </c>
+      <c r="G33">
+        <v>0.03829459495679369</v>
+      </c>
+      <c r="H33">
+        <v>-0.03633015878519366</v>
+      </c>
+      <c r="I33">
+        <v>0.03782598433845792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04730957467644013</v>
+        <v>0.04136158803957905</v>
       </c>
       <c r="C34">
-        <v>0.0123584902901557</v>
+        <v>0.03611710216878721</v>
       </c>
       <c r="D34">
-        <v>-0.0258202293328861</v>
+        <v>-0.002761715435400229</v>
       </c>
       <c r="E34">
-        <v>0.002810725032373268</v>
+        <v>-0.01580482502554301</v>
       </c>
       <c r="F34">
-        <v>0.03857563431197742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03727699821233704</v>
+      </c>
+      <c r="G34">
+        <v>-0.00263664500761915</v>
+      </c>
+      <c r="H34">
+        <v>-0.01096807644613987</v>
+      </c>
+      <c r="I34">
+        <v>0.03435162806930155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01991157889066389</v>
+        <v>0.01678323771768412</v>
       </c>
       <c r="C36">
-        <v>-0.001718204992642815</v>
+        <v>0.006680235605014315</v>
       </c>
       <c r="D36">
-        <v>-0.01490125288536451</v>
+        <v>-0.002952248655096401</v>
       </c>
       <c r="E36">
-        <v>0.003582605345417275</v>
+        <v>-0.01050438781699088</v>
       </c>
       <c r="F36">
-        <v>0.02257134444242288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02782470672499904</v>
+      </c>
+      <c r="G36">
+        <v>0.03198212670887195</v>
+      </c>
+      <c r="H36">
+        <v>-0.02404856504851861</v>
+      </c>
+      <c r="I36">
+        <v>-0.0100687811137462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04185616651725928</v>
+        <v>0.03458175848661973</v>
       </c>
       <c r="C38">
-        <v>0.00403033820121216</v>
+        <v>0.01631980203331104</v>
       </c>
       <c r="D38">
-        <v>-0.01987732114929278</v>
+        <v>-0.002506234339192384</v>
       </c>
       <c r="E38">
-        <v>0.01693204998625855</v>
+        <v>-0.007238938772125104</v>
       </c>
       <c r="F38">
-        <v>0.02917636377762617</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.05357987970440815</v>
+      </c>
+      <c r="G38">
+        <v>0.0143032645154943</v>
+      </c>
+      <c r="H38">
+        <v>-0.03117197944359271</v>
+      </c>
+      <c r="I38">
+        <v>-0.004858894987476993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.06921017319601445</v>
+        <v>0.05230337825623917</v>
       </c>
       <c r="C39">
-        <v>0.01164043212099894</v>
+        <v>0.04916160741430189</v>
       </c>
       <c r="D39">
-        <v>-0.02758407591543075</v>
+        <v>0.008074741578886546</v>
       </c>
       <c r="E39">
-        <v>-0.01447471392843902</v>
+        <v>-0.0167930493802366</v>
       </c>
       <c r="F39">
-        <v>0.03857778096543363</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05595542430416048</v>
+      </c>
+      <c r="G39">
+        <v>-0.01247858989000601</v>
+      </c>
+      <c r="H39">
+        <v>-0.02536176094893761</v>
+      </c>
+      <c r="I39">
+        <v>0.01934818110648927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07274875654009344</v>
+        <v>0.05453029708782198</v>
       </c>
       <c r="C40">
-        <v>-0.002990277429411709</v>
+        <v>0.04252297543708101</v>
       </c>
       <c r="D40">
-        <v>-0.06020086104957036</v>
+        <v>0.02448195856055767</v>
       </c>
       <c r="E40">
-        <v>-0.03713949099382585</v>
+        <v>-0.02336889359146628</v>
       </c>
       <c r="F40">
-        <v>0.1069005740148195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09162849070423247</v>
+      </c>
+      <c r="G40">
+        <v>0.03406367034944967</v>
+      </c>
+      <c r="H40">
+        <v>-0.03265133355152886</v>
+      </c>
+      <c r="I40">
+        <v>0.1180452223847245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.00298435602424932</v>
+        <v>0.00494055938547581</v>
       </c>
       <c r="C41">
-        <v>0.01337086533837672</v>
+        <v>0.01218548132102544</v>
       </c>
       <c r="D41">
-        <v>-0.03649643326481203</v>
+        <v>0.00139790595966335</v>
       </c>
       <c r="E41">
-        <v>0.005490431206805287</v>
+        <v>-0.01144608529803834</v>
       </c>
       <c r="F41">
-        <v>-0.004259013886261406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01209484362814307</v>
+      </c>
+      <c r="G41">
+        <v>0.04795001664826095</v>
+      </c>
+      <c r="H41">
+        <v>-0.038823353732879</v>
+      </c>
+      <c r="I41">
+        <v>0.004238511821516415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1833145530739897</v>
+        <v>0.2045948648705901</v>
       </c>
       <c r="C42">
-        <v>0.7386990389917542</v>
+        <v>0.2105996483981061</v>
       </c>
       <c r="D42">
-        <v>0.561701761453467</v>
+        <v>0.05197751571493127</v>
       </c>
       <c r="E42">
-        <v>-0.2282618816270734</v>
+        <v>0.9227491510880319</v>
       </c>
       <c r="F42">
-        <v>-0.07523615113556317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1671900234132203</v>
+      </c>
+      <c r="G42">
+        <v>0.0093299221242525</v>
+      </c>
+      <c r="H42">
+        <v>0.006067647239455591</v>
+      </c>
+      <c r="I42">
+        <v>0.04618814070610514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006421037109822212</v>
+        <v>0.008657125597926802</v>
       </c>
       <c r="C43">
-        <v>0.01581228326021666</v>
+        <v>0.01414161413827659</v>
       </c>
       <c r="D43">
-        <v>-0.03730022170595728</v>
+        <v>0.00445101974121655</v>
       </c>
       <c r="E43">
-        <v>0.0002931720176469507</v>
+        <v>-0.009605782280610797</v>
       </c>
       <c r="F43">
-        <v>0.02577722940765998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02437974122684155</v>
+      </c>
+      <c r="G43">
+        <v>0.03749911454399387</v>
+      </c>
+      <c r="H43">
+        <v>-0.02143725982114114</v>
+      </c>
+      <c r="I43">
+        <v>0.01298280053727002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04291105328656269</v>
+        <v>0.02677979305766774</v>
       </c>
       <c r="C44">
-        <v>0.02817161756024483</v>
+        <v>0.0412789235585735</v>
       </c>
       <c r="D44">
-        <v>-0.05441341914709629</v>
+        <v>0.0007498085084138875</v>
       </c>
       <c r="E44">
-        <v>-0.007724170133965444</v>
+        <v>-0.0117292941960873</v>
       </c>
       <c r="F44">
-        <v>0.1213885385596418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1231333624269945</v>
+      </c>
+      <c r="G44">
+        <v>0.08631531600449517</v>
+      </c>
+      <c r="H44">
+        <v>-0.05121320509359795</v>
+      </c>
+      <c r="I44">
+        <v>0.05151575768976258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03612785559092537</v>
+        <v>0.02742929138311846</v>
       </c>
       <c r="C46">
-        <v>0.01366414005938277</v>
+        <v>0.03857653214256637</v>
       </c>
       <c r="D46">
-        <v>-0.04570715661594721</v>
+        <v>0.006716813775067864</v>
       </c>
       <c r="E46">
-        <v>-0.00105595158515233</v>
+        <v>-0.02965472801072153</v>
       </c>
       <c r="F46">
-        <v>0.01846162555827467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04987236014692861</v>
+      </c>
+      <c r="G46">
+        <v>0.05230679411119394</v>
+      </c>
+      <c r="H46">
+        <v>-0.020835002918808</v>
+      </c>
+      <c r="I46">
+        <v>0.004880408298530048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09304032612193788</v>
+        <v>0.08674989712662601</v>
       </c>
       <c r="C47">
-        <v>0.002086856937040781</v>
+        <v>0.02488482668858552</v>
       </c>
       <c r="D47">
-        <v>-0.03737299003558101</v>
+        <v>0.006188716471168331</v>
       </c>
       <c r="E47">
-        <v>0.003233666275313993</v>
+        <v>-0.02668180476570792</v>
       </c>
       <c r="F47">
-        <v>-0.01770998631556818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01475223091983264</v>
+      </c>
+      <c r="G47">
+        <v>0.06830054661421273</v>
+      </c>
+      <c r="H47">
+        <v>-0.02904134612441457</v>
+      </c>
+      <c r="I47">
+        <v>0.02578470956182457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02149026004072024</v>
+        <v>0.02159537440943564</v>
       </c>
       <c r="C48">
-        <v>0.00846046142629058</v>
+        <v>0.01917579668345749</v>
       </c>
       <c r="D48">
-        <v>-0.03278978826037707</v>
+        <v>0.0004992058803826489</v>
       </c>
       <c r="E48">
-        <v>0.0002866335111140956</v>
+        <v>-0.01403841872637113</v>
       </c>
       <c r="F48">
-        <v>0.02797777340121703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02878225747566075</v>
+      </c>
+      <c r="G48">
+        <v>0.02197767549186444</v>
+      </c>
+      <c r="H48">
+        <v>-0.01779210136829729</v>
+      </c>
+      <c r="I48">
+        <v>0.008767569251857852</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09156074824681588</v>
+        <v>0.08783872079897989</v>
       </c>
       <c r="C50">
-        <v>0.01886094212737643</v>
+        <v>0.04538051896330844</v>
       </c>
       <c r="D50">
-        <v>-0.04508003529045604</v>
+        <v>-0.007033066164509205</v>
       </c>
       <c r="E50">
-        <v>-0.007111496025060341</v>
+        <v>-0.02226833185329348</v>
       </c>
       <c r="F50">
-        <v>-0.02728062778989773</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.008536406288664146</v>
+      </c>
+      <c r="G50">
+        <v>0.04054020799749279</v>
+      </c>
+      <c r="H50">
+        <v>0.007230595206248702</v>
+      </c>
+      <c r="I50">
+        <v>-0.009245171578918276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05616117615877048</v>
+        <v>0.03947816653023276</v>
       </c>
       <c r="C51">
-        <v>-0.015478314802952</v>
+        <v>-0.005730845433976681</v>
       </c>
       <c r="D51">
-        <v>-0.01496347199667791</v>
+        <v>0.01267933906232277</v>
       </c>
       <c r="E51">
-        <v>-0.03759912891379494</v>
+        <v>-0.01085766751835082</v>
       </c>
       <c r="F51">
-        <v>0.05052550784753539</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08547750911277803</v>
+      </c>
+      <c r="G51">
+        <v>0.06173367065367753</v>
+      </c>
+      <c r="H51">
+        <v>-0.05435620685779</v>
+      </c>
+      <c r="I51">
+        <v>0.03006513770821748</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1340099609860812</v>
+        <v>0.1237244798757587</v>
       </c>
       <c r="C53">
-        <v>-0.004589494035067703</v>
+        <v>0.04403102718598262</v>
       </c>
       <c r="D53">
-        <v>-0.06196582295761897</v>
+        <v>0.008695863280676121</v>
       </c>
       <c r="E53">
-        <v>-0.00638882779385839</v>
+        <v>-0.05055855305360091</v>
       </c>
       <c r="F53">
-        <v>-0.06639433418497533</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05150655112996575</v>
+      </c>
+      <c r="G53">
+        <v>0.02804067890223924</v>
+      </c>
+      <c r="H53">
+        <v>-0.02239292072743522</v>
+      </c>
+      <c r="I53">
+        <v>0.02927711050405763</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02764256228361503</v>
+        <v>0.02687423286284717</v>
       </c>
       <c r="C54">
-        <v>-0.007240809019851679</v>
+        <v>0.009500166739898645</v>
       </c>
       <c r="D54">
-        <v>-0.03423605104689291</v>
+        <v>-0.00338802893679058</v>
       </c>
       <c r="E54">
-        <v>0.007589423542185579</v>
+        <v>-0.0301847460840709</v>
       </c>
       <c r="F54">
-        <v>0.0369953618599313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03639137116698895</v>
+      </c>
+      <c r="G54">
+        <v>0.05254846449609774</v>
+      </c>
+      <c r="H54">
+        <v>-0.03053471023247564</v>
+      </c>
+      <c r="I54">
+        <v>-0.005428649787774085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1079361972662416</v>
+        <v>0.09808866272601974</v>
       </c>
       <c r="C55">
-        <v>-0.009303848289240926</v>
+        <v>0.03682259818978101</v>
       </c>
       <c r="D55">
-        <v>-0.0261500869965177</v>
+        <v>-0.009857335346969788</v>
       </c>
       <c r="E55">
-        <v>0.03847666612121892</v>
+        <v>-0.03559029216575008</v>
       </c>
       <c r="F55">
-        <v>-0.02833250212134827</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04053551065623439</v>
+      </c>
+      <c r="G55">
+        <v>0.04186416443134891</v>
+      </c>
+      <c r="H55">
+        <v>0.01362357150967099</v>
+      </c>
+      <c r="I55">
+        <v>0.008209323674452889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1714110464708869</v>
+        <v>0.1651458666789942</v>
       </c>
       <c r="C56">
-        <v>-0.05595992648460145</v>
+        <v>0.03249067913845684</v>
       </c>
       <c r="D56">
-        <v>-0.0663374218087083</v>
+        <v>0.00509343533846992</v>
       </c>
       <c r="E56">
-        <v>0.02452839122662371</v>
+        <v>-0.08533332822298546</v>
       </c>
       <c r="F56">
-        <v>-0.1035371124679017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09497707050149412</v>
+      </c>
+      <c r="G56">
+        <v>-0.0123223482943903</v>
+      </c>
+      <c r="H56">
+        <v>0.01914792143008396</v>
+      </c>
+      <c r="I56">
+        <v>0.03077490075350961</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.07489339960188451</v>
+        <v>0.06121442796832062</v>
       </c>
       <c r="C57">
-        <v>0.0139632417176353</v>
+        <v>0.02676132185099973</v>
       </c>
       <c r="D57">
-        <v>-0.03694189121657468</v>
+        <v>0.02270463031076321</v>
       </c>
       <c r="E57">
-        <v>-0.03458114074536337</v>
+        <v>-0.004663504030712703</v>
       </c>
       <c r="F57">
-        <v>0.06120691342297148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.07035167033942256</v>
+      </c>
+      <c r="G57">
+        <v>0.01398518775599114</v>
+      </c>
+      <c r="H57">
+        <v>-0.01625814983749561</v>
+      </c>
+      <c r="I57">
+        <v>0.02685433334093131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2009521030004567</v>
+        <v>0.2017503022754516</v>
       </c>
       <c r="C58">
-        <v>0.04294433967546399</v>
+        <v>0.1135335282163901</v>
       </c>
       <c r="D58">
-        <v>-0.07087431064288781</v>
+        <v>0.09767670662989561</v>
       </c>
       <c r="E58">
-        <v>-0.04844607099125032</v>
+        <v>0.03826808802290518</v>
       </c>
       <c r="F58">
-        <v>0.2185015353483654</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.3579073172807551</v>
+      </c>
+      <c r="G58">
+        <v>0.2870864608803309</v>
+      </c>
+      <c r="H58">
+        <v>0.3141151156647795</v>
+      </c>
+      <c r="I58">
+        <v>-0.7414111574438431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.03525136877594416</v>
+        <v>0.05804044961781777</v>
       </c>
       <c r="C59">
-        <v>-0.1596969815224809</v>
+        <v>-0.206741367518254</v>
       </c>
       <c r="D59">
-        <v>0.1206822193091695</v>
+        <v>0.01379590748748312</v>
       </c>
       <c r="E59">
-        <v>-0.03079812747377348</v>
+        <v>0.007416903146762309</v>
       </c>
       <c r="F59">
-        <v>0.04359026162328936</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0635883556465399</v>
+      </c>
+      <c r="G59">
+        <v>-0.003251705846214497</v>
+      </c>
+      <c r="H59">
+        <v>-0.01364975974710115</v>
+      </c>
+      <c r="I59">
+        <v>0.005621252865083724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1828349843144319</v>
+        <v>0.1940981736421586</v>
       </c>
       <c r="C60">
-        <v>-0.06851099029170903</v>
+        <v>-0.05650859244588827</v>
       </c>
       <c r="D60">
-        <v>0.02241758961847764</v>
+        <v>0.05247404785848104</v>
       </c>
       <c r="E60">
-        <v>-0.08599328973588556</v>
+        <v>-0.0129946882610858</v>
       </c>
       <c r="F60">
-        <v>0.1302945050221233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1639625387457518</v>
+      </c>
+      <c r="G60">
+        <v>-0.361303115607551</v>
+      </c>
+      <c r="H60">
+        <v>-0.01467511209280844</v>
+      </c>
+      <c r="I60">
+        <v>0.03262102107108617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03937752457958964</v>
+        <v>0.03868275409491655</v>
       </c>
       <c r="C61">
-        <v>0.01049009816109267</v>
+        <v>0.0339727840678099</v>
       </c>
       <c r="D61">
-        <v>-0.01495544226330698</v>
+        <v>2.497594742369235e-05</v>
       </c>
       <c r="E61">
-        <v>0.004098493647653894</v>
+        <v>-0.01068694818050585</v>
       </c>
       <c r="F61">
-        <v>0.04079560764469577</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03754945105859203</v>
+      </c>
+      <c r="G61">
+        <v>-0.01655118801252116</v>
+      </c>
+      <c r="H61">
+        <v>-0.01519377487422354</v>
+      </c>
+      <c r="I61">
+        <v>0.009363533319133742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03781745552412227</v>
+        <v>0.02945068607871366</v>
       </c>
       <c r="C63">
-        <v>0.003251287353129934</v>
+        <v>0.02449192604325538</v>
       </c>
       <c r="D63">
-        <v>-0.02976861396062905</v>
+        <v>0.002022257661069355</v>
       </c>
       <c r="E63">
-        <v>-0.004213886178895352</v>
+        <v>-0.01686506988207859</v>
       </c>
       <c r="F63">
-        <v>0.05077060556649802</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03512286480625519</v>
+      </c>
+      <c r="G63">
+        <v>0.04759692682444805</v>
+      </c>
+      <c r="H63">
+        <v>-0.005210579879571013</v>
+      </c>
+      <c r="I63">
+        <v>0.03052989481901779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05879625916481451</v>
+        <v>0.05591323487751496</v>
       </c>
       <c r="C64">
-        <v>0.01728461768245071</v>
+        <v>0.03719446732766391</v>
       </c>
       <c r="D64">
-        <v>-0.03803638608695295</v>
+        <v>-0.00835228731029237</v>
       </c>
       <c r="E64">
-        <v>0.02968305270557381</v>
+        <v>-0.01864776968130162</v>
       </c>
       <c r="F64">
-        <v>0.04183829584233876</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04116927110542595</v>
+      </c>
+      <c r="G64">
+        <v>0.02500337093131981</v>
+      </c>
+      <c r="H64">
+        <v>-0.05995043334113406</v>
+      </c>
+      <c r="I64">
+        <v>0.0433710831063636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.0291095640851036</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01179449740076932</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.003585813635179521</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006606523749022853</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.002141016384942342</v>
+      </c>
+      <c r="G65">
+        <v>-0.02801071352476677</v>
+      </c>
+      <c r="H65">
+        <v>0.01349021556710056</v>
+      </c>
+      <c r="I65">
+        <v>0.007323437432594908</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.07445555193688237</v>
+        <v>0.0646905387094921</v>
       </c>
       <c r="C66">
-        <v>0.01095393942460889</v>
+        <v>0.05904240499723246</v>
       </c>
       <c r="D66">
-        <v>-0.05696412785788699</v>
+        <v>0.01611399171140258</v>
       </c>
       <c r="E66">
-        <v>-0.0006505083681877259</v>
+        <v>-0.04256327164976535</v>
       </c>
       <c r="F66">
-        <v>0.07903885356230822</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06848299993195325</v>
+      </c>
+      <c r="G66">
+        <v>-0.01626153060222916</v>
+      </c>
+      <c r="H66">
+        <v>-0.01133138751894223</v>
+      </c>
+      <c r="I66">
+        <v>0.06486513741135003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0508875511191236</v>
+        <v>0.0479192584852054</v>
       </c>
       <c r="C67">
-        <v>-0.01222437066923228</v>
+        <v>-0.002554103807446608</v>
       </c>
       <c r="D67">
-        <v>0.001504251726481728</v>
+        <v>0.002447478663777545</v>
       </c>
       <c r="E67">
-        <v>0.003886596166913852</v>
+        <v>-0.006561386744932875</v>
       </c>
       <c r="F67">
-        <v>0.02599172462936217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03927615680529428</v>
+      </c>
+      <c r="G67">
+        <v>-0.00911407111566951</v>
+      </c>
+      <c r="H67">
+        <v>-0.04430091090091441</v>
+      </c>
+      <c r="I67">
+        <v>-0.01593773158960523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.05494526484008627</v>
+        <v>0.06645937191969505</v>
       </c>
       <c r="C68">
-        <v>-0.1781716991024238</v>
+        <v>-0.2407938412081886</v>
       </c>
       <c r="D68">
-        <v>0.1728778622416804</v>
+        <v>0.01102200028599212</v>
       </c>
       <c r="E68">
-        <v>-0.04048652527570198</v>
+        <v>0.02703360891626875</v>
       </c>
       <c r="F68">
-        <v>0.03192602865639571</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03751074168969753</v>
+      </c>
+      <c r="G68">
+        <v>0.03644797671293377</v>
+      </c>
+      <c r="H68">
+        <v>0.01557481318549815</v>
+      </c>
+      <c r="I68">
+        <v>-0.007724275229145292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07601596668603247</v>
+        <v>0.07014127819091703</v>
       </c>
       <c r="C69">
-        <v>-0.006337424932435017</v>
+        <v>0.0222405943888258</v>
       </c>
       <c r="D69">
-        <v>-0.02852718474923896</v>
+        <v>0.008183685418198973</v>
       </c>
       <c r="E69">
-        <v>-0.001317436796658213</v>
+        <v>-0.02949520122258058</v>
       </c>
       <c r="F69">
-        <v>-0.007621875122860665</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001420811284978507</v>
+      </c>
+      <c r="G69">
+        <v>0.03972475422475501</v>
+      </c>
+      <c r="H69">
+        <v>-0.02162866566734409</v>
+      </c>
+      <c r="I69">
+        <v>0.01551128938883109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.05250995882030806</v>
+        <v>0.06312905462683635</v>
       </c>
       <c r="C71">
-        <v>-0.2182688033094135</v>
+        <v>-0.2661774406285458</v>
       </c>
       <c r="D71">
-        <v>0.2034355122602952</v>
+        <v>0.01274979265745498</v>
       </c>
       <c r="E71">
-        <v>-0.0775098273615806</v>
+        <v>0.0387957886381053</v>
       </c>
       <c r="F71">
-        <v>0.06103000134796286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0624463533285936</v>
+      </c>
+      <c r="G71">
+        <v>0.03616640232908731</v>
+      </c>
+      <c r="H71">
+        <v>-0.0155605347923475</v>
+      </c>
+      <c r="I71">
+        <v>0.0168407264450836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.13392623309604</v>
+        <v>0.1343245837005532</v>
       </c>
       <c r="C72">
-        <v>-0.04714152589901397</v>
+        <v>0.03946595980850188</v>
       </c>
       <c r="D72">
-        <v>-0.04368742638768063</v>
+        <v>0.01322149951683126</v>
       </c>
       <c r="E72">
-        <v>-0.004151189138579879</v>
+        <v>-0.07363372547774008</v>
       </c>
       <c r="F72">
-        <v>0.07586363439106299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.07496673088553879</v>
+      </c>
+      <c r="G72">
+        <v>-0.09499019380096203</v>
+      </c>
+      <c r="H72">
+        <v>0.01156471100564758</v>
+      </c>
+      <c r="I72">
+        <v>-0.1246024504757003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2736773959133295</v>
+        <v>0.2728985238457102</v>
       </c>
       <c r="C73">
-        <v>-0.1089212575051116</v>
+        <v>-0.08371458415245425</v>
       </c>
       <c r="D73">
-        <v>0.1010532738097953</v>
+        <v>0.09066436732309054</v>
       </c>
       <c r="E73">
-        <v>-0.1219488271686185</v>
+        <v>0.03612054912507234</v>
       </c>
       <c r="F73">
-        <v>0.2170215113071016</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2362859735576416</v>
+      </c>
+      <c r="G73">
+        <v>-0.5517265856141247</v>
+      </c>
+      <c r="H73">
+        <v>0.03684197611644279</v>
+      </c>
+      <c r="I73">
+        <v>-0.01987715468171162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1524229574622617</v>
+        <v>0.148838698598873</v>
       </c>
       <c r="C74">
-        <v>-0.006833084389617093</v>
+        <v>0.04293608469623213</v>
       </c>
       <c r="D74">
-        <v>-0.04109368773012161</v>
+        <v>0.01374759387260462</v>
       </c>
       <c r="E74">
-        <v>-0.00321751692267408</v>
+        <v>-0.04774467018376683</v>
       </c>
       <c r="F74">
-        <v>-0.04878440707482231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07300666163784078</v>
+      </c>
+      <c r="G74">
+        <v>-0.01273388912085492</v>
+      </c>
+      <c r="H74">
+        <v>0.02112111809280537</v>
+      </c>
+      <c r="I74">
+        <v>0.08141909318879195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2318185783566757</v>
+        <v>0.2510612073132734</v>
       </c>
       <c r="C75">
-        <v>-0.04397285418772619</v>
+        <v>0.04098817615235059</v>
       </c>
       <c r="D75">
-        <v>-0.08423008330370392</v>
+        <v>0.0333175742475359</v>
       </c>
       <c r="E75">
-        <v>-0.01192720407087765</v>
+        <v>-0.1116817902941148</v>
       </c>
       <c r="F75">
-        <v>-0.1464595517400586</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.150169132469885</v>
+      </c>
+      <c r="G75">
+        <v>0.01204980704143857</v>
+      </c>
+      <c r="H75">
+        <v>-0.004779981709868519</v>
+      </c>
+      <c r="I75">
+        <v>0.01412759479650926</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2559614904144012</v>
+        <v>0.2635639531012819</v>
       </c>
       <c r="C76">
-        <v>-0.07983799522004473</v>
+        <v>0.0322520400226057</v>
       </c>
       <c r="D76">
-        <v>-0.07057666396520726</v>
+        <v>-0.005433183696956107</v>
       </c>
       <c r="E76">
-        <v>0.0557824805848943</v>
+        <v>-0.1334904149876961</v>
       </c>
       <c r="F76">
-        <v>-0.1407429983142155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1940308845187259</v>
+      </c>
+      <c r="G76">
+        <v>0.01491349441566047</v>
+      </c>
+      <c r="H76">
+        <v>0.07934268593859105</v>
+      </c>
+      <c r="I76">
+        <v>0.02729195265902444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1376595578284765</v>
+        <v>0.1160905403905561</v>
       </c>
       <c r="C77">
-        <v>0.06711492149098312</v>
+        <v>0.0718281395162655</v>
       </c>
       <c r="D77">
-        <v>-0.01791000901684369</v>
+        <v>0.01362082850486899</v>
       </c>
       <c r="E77">
-        <v>-0.02115676056624545</v>
+        <v>0.04794469339028833</v>
       </c>
       <c r="F77">
-        <v>0.1785233122425419</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1773083114908522</v>
+      </c>
+      <c r="G77">
+        <v>0.2176645883092881</v>
+      </c>
+      <c r="H77">
+        <v>0.01854120222355725</v>
+      </c>
+      <c r="I77">
+        <v>0.2209076861089254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08976633075792306</v>
+        <v>0.06805459252784923</v>
       </c>
       <c r="C78">
-        <v>0.05379089022043273</v>
+        <v>0.06930257630708675</v>
       </c>
       <c r="D78">
-        <v>-0.05063729722413154</v>
+        <v>0.00202653115445024</v>
       </c>
       <c r="E78">
-        <v>0.00395148391978546</v>
+        <v>-0.01020268930614378</v>
       </c>
       <c r="F78">
-        <v>0.05203800906283496</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07587174572688632</v>
+      </c>
+      <c r="G78">
+        <v>0.01736527403391056</v>
+      </c>
+      <c r="H78">
+        <v>-0.02294924834772944</v>
+      </c>
+      <c r="I78">
+        <v>0.03532850116203092</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1156784334179512</v>
+        <v>0.1487810706835211</v>
       </c>
       <c r="C80">
-        <v>0.07842172444722849</v>
+        <v>-0.0112718090317141</v>
       </c>
       <c r="D80">
-        <v>0.2711419692602111</v>
+        <v>-0.9753608704054285</v>
       </c>
       <c r="E80">
-        <v>0.9263023860865627</v>
+        <v>0.04497307547573657</v>
       </c>
       <c r="F80">
-        <v>0.07415755995179721</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.05210587877039228</v>
+      </c>
+      <c r="G80">
+        <v>-0.04802440587921848</v>
+      </c>
+      <c r="H80">
+        <v>-0.03491332879191152</v>
+      </c>
+      <c r="I80">
+        <v>-0.0864785027837411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1527293675480932</v>
+        <v>0.1808756277575175</v>
       </c>
       <c r="C81">
-        <v>-0.04351197051046096</v>
+        <v>0.02171479495211812</v>
       </c>
       <c r="D81">
-        <v>-0.05014141092366985</v>
+        <v>0.007883527821238559</v>
       </c>
       <c r="E81">
-        <v>0.0199427398034632</v>
+        <v>-0.09042201074068144</v>
       </c>
       <c r="F81">
-        <v>-0.1740421909167587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1576074155202236</v>
+      </c>
+      <c r="G81">
+        <v>0.03340606720491455</v>
+      </c>
+      <c r="H81">
+        <v>0.03575550860737384</v>
+      </c>
+      <c r="I81">
+        <v>-0.01492422419300159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.08111703555647767</v>
+        <v>0.06295093564836923</v>
       </c>
       <c r="C83">
-        <v>0.08257389722589199</v>
+        <v>0.05352275519539076</v>
       </c>
       <c r="D83">
-        <v>-0.03336744407140958</v>
+        <v>0.01281111296988906</v>
       </c>
       <c r="E83">
-        <v>-0.01862036799398075</v>
+        <v>0.022712820995169</v>
       </c>
       <c r="F83">
-        <v>0.01862401837837746</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04694360342888378</v>
+      </c>
+      <c r="G83">
+        <v>0.0385573751986924</v>
+      </c>
+      <c r="H83">
+        <v>-0.05798457520405356</v>
+      </c>
+      <c r="I83">
+        <v>0.04478921898725035</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2456996330208452</v>
+        <v>0.2533805817646804</v>
       </c>
       <c r="C85">
-        <v>-0.007285101101375389</v>
+        <v>0.07234934286155592</v>
       </c>
       <c r="D85">
-        <v>-0.09430716337306452</v>
+        <v>0.01507377667205976</v>
       </c>
       <c r="E85">
-        <v>0.05360348986724688</v>
+        <v>-0.1080018851020911</v>
       </c>
       <c r="F85">
-        <v>-0.151046004735133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1872972779522815</v>
+      </c>
+      <c r="G85">
+        <v>0.05545728669431513</v>
+      </c>
+      <c r="H85">
+        <v>0.02758784668855558</v>
+      </c>
+      <c r="I85">
+        <v>0.05329129415216272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.03809251768870968</v>
+        <v>0.0256860298784559</v>
       </c>
       <c r="C86">
-        <v>0.03646103764008688</v>
+        <v>0.05359723665759816</v>
       </c>
       <c r="D86">
-        <v>-0.0514452847199971</v>
+        <v>0.005006665037683994</v>
       </c>
       <c r="E86">
-        <v>-0.00861689675333723</v>
+        <v>-0.01078470515434738</v>
       </c>
       <c r="F86">
-        <v>0.08695925873102936</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08728778367263985</v>
+      </c>
+      <c r="G86">
+        <v>0.05176288050436161</v>
+      </c>
+      <c r="H86">
+        <v>-0.011718647083449</v>
+      </c>
+      <c r="I86">
+        <v>0.06208496887971278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02061857166078692</v>
+        <v>0.02613190534311574</v>
       </c>
       <c r="C87">
-        <v>-0.02784723228129428</v>
+        <v>-0.007073649543402276</v>
       </c>
       <c r="D87">
-        <v>0.02704627512422344</v>
+        <v>-0.00331455352224444</v>
       </c>
       <c r="E87">
-        <v>-0.009123944122636431</v>
+        <v>0.00215687861615018</v>
       </c>
       <c r="F87">
-        <v>0.09981858460986232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1115720137036684</v>
+      </c>
+      <c r="G87">
+        <v>0.009505411866829417</v>
+      </c>
+      <c r="H87">
+        <v>0.01040247045614172</v>
+      </c>
+      <c r="I87">
+        <v>0.05134678750553042</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0284528497114639</v>
+        <v>0.03488446200286505</v>
       </c>
       <c r="C88">
-        <v>0.008854857963191529</v>
+        <v>0.008821413561448681</v>
       </c>
       <c r="D88">
-        <v>-0.02299703265120616</v>
+        <v>-0.004489735879143818</v>
       </c>
       <c r="E88">
-        <v>0.02443635095958892</v>
+        <v>-0.01108653460437421</v>
       </c>
       <c r="F88">
-        <v>-0.0104451189067986</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01247924054152425</v>
+      </c>
+      <c r="G88">
+        <v>0.02510852019683546</v>
+      </c>
+      <c r="H88">
+        <v>-0.05145764387453316</v>
+      </c>
+      <c r="I88">
+        <v>0.007686158749374188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07492277197158899</v>
+        <v>0.103814106531786</v>
       </c>
       <c r="C89">
-        <v>-0.2381596047630797</v>
+        <v>-0.3835382007630332</v>
       </c>
       <c r="D89">
-        <v>0.277095863093845</v>
+        <v>0.03684389479594583</v>
       </c>
       <c r="E89">
-        <v>-0.0957541630919589</v>
+        <v>0.05327646471299516</v>
       </c>
       <c r="F89">
-        <v>0.01887115044311834</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03961833735501839</v>
+      </c>
+      <c r="G89">
+        <v>0.1033976280128939</v>
+      </c>
+      <c r="H89">
+        <v>-0.02815708787256509</v>
+      </c>
+      <c r="I89">
+        <v>0.04020494892739854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.05364588248443779</v>
+        <v>0.06583028240009954</v>
       </c>
       <c r="C90">
-        <v>-0.2217040754185778</v>
+        <v>-0.3419607654894065</v>
       </c>
       <c r="D90">
-        <v>0.2539343896128732</v>
+        <v>0.01214384382639989</v>
       </c>
       <c r="E90">
-        <v>-0.03314290806387555</v>
+        <v>0.05027277426294166</v>
       </c>
       <c r="F90">
-        <v>0.03766918637639375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.0190624241494977</v>
+      </c>
+      <c r="G90">
+        <v>0.08689547449293746</v>
+      </c>
+      <c r="H90">
+        <v>-0.01114267004613365</v>
+      </c>
+      <c r="I90">
+        <v>0.00945309898473648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2806577361045642</v>
+        <v>0.2886622633140659</v>
       </c>
       <c r="C91">
-        <v>-0.005769372692328097</v>
+        <v>0.08198947604463379</v>
       </c>
       <c r="D91">
-        <v>-0.1009164626159589</v>
+        <v>0.02167293928364141</v>
       </c>
       <c r="E91">
-        <v>0.04234584294860892</v>
+        <v>-0.1018447202724193</v>
       </c>
       <c r="F91">
-        <v>-0.2684009707060204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2721151084292845</v>
+      </c>
+      <c r="G91">
+        <v>0.04274755108848392</v>
+      </c>
+      <c r="H91">
+        <v>0.0692854728944141</v>
+      </c>
+      <c r="I91">
+        <v>0.02820730345157824</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.0866556330002408</v>
+        <v>0.1427162844382147</v>
       </c>
       <c r="C92">
-        <v>-0.189599572846316</v>
+        <v>-0.3648305490032427</v>
       </c>
       <c r="D92">
-        <v>0.3015031319991537</v>
+        <v>-0.003117261476896242</v>
       </c>
       <c r="E92">
-        <v>-0.01653174438055442</v>
+        <v>0.08119441736550695</v>
       </c>
       <c r="F92">
-        <v>-0.05080688319216416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.08894673599903466</v>
+      </c>
+      <c r="G92">
+        <v>0.288357525283307</v>
+      </c>
+      <c r="H92">
+        <v>-0.009900651533190913</v>
+      </c>
+      <c r="I92">
+        <v>-0.006413785729082941</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05093413485876864</v>
+        <v>0.08498530864131881</v>
       </c>
       <c r="C93">
-        <v>-0.2533858436331906</v>
+        <v>-0.4028824418387944</v>
       </c>
       <c r="D93">
-        <v>0.2955446096325938</v>
+        <v>0.02376502098510037</v>
       </c>
       <c r="E93">
-        <v>-0.04665694211864133</v>
+        <v>0.08185368582004289</v>
       </c>
       <c r="F93">
-        <v>-0.02934903772173115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01256176232666057</v>
+      </c>
+      <c r="G93">
+        <v>0.04000898026212226</v>
+      </c>
+      <c r="H93">
+        <v>-0.04664796012764801</v>
+      </c>
+      <c r="I93">
+        <v>-0.02943772700753767</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2731890734893151</v>
+        <v>0.3051401471618114</v>
       </c>
       <c r="C94">
-        <v>-0.0809089911221875</v>
+        <v>-0.01099752445578739</v>
       </c>
       <c r="D94">
-        <v>0.002353301084098685</v>
+        <v>0.04324224163395133</v>
       </c>
       <c r="E94">
-        <v>0.009427440398860268</v>
+        <v>-0.1107521559336966</v>
       </c>
       <c r="F94">
-        <v>-0.2201439379314417</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2626628029080309</v>
+      </c>
+      <c r="G94">
+        <v>0.07326499646711435</v>
+      </c>
+      <c r="H94">
+        <v>0.2141217665280268</v>
+      </c>
+      <c r="I94">
+        <v>0.02522303860988766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1662694056938482</v>
+        <v>0.1302057483856261</v>
       </c>
       <c r="C95">
-        <v>0.05897845345234469</v>
+        <v>0.06389521373379484</v>
       </c>
       <c r="D95">
-        <v>-0.06563428786904586</v>
+        <v>0.08242777125381237</v>
       </c>
       <c r="E95">
-        <v>-0.05988180687769917</v>
+        <v>-0.02818260093239953</v>
       </c>
       <c r="F95">
-        <v>-0.4867714884099636</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1069000794584216</v>
+      </c>
+      <c r="G95">
+        <v>0.03117356591142227</v>
+      </c>
+      <c r="H95">
+        <v>-0.881035356205736</v>
+      </c>
+      <c r="I95">
+        <v>-0.3368231552931429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2037506742247968</v>
+        <v>0.2085696591190054</v>
       </c>
       <c r="C98">
-        <v>-0.05794169082862447</v>
+        <v>-0.06675530709657243</v>
       </c>
       <c r="D98">
-        <v>0.06667946557276161</v>
+        <v>0.06240910824610121</v>
       </c>
       <c r="E98">
-        <v>-0.09478346804696178</v>
+        <v>0.02592851868167857</v>
       </c>
       <c r="F98">
-        <v>0.04060794521666951</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1447424065188574</v>
+      </c>
+      <c r="G98">
+        <v>-0.393320944693769</v>
+      </c>
+      <c r="H98">
+        <v>0.002455885060993494</v>
+      </c>
+      <c r="I98">
+        <v>-0.04574692422973923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0306398779264654</v>
+        <v>0.0170948537064312</v>
       </c>
       <c r="C101">
-        <v>0.005333666438244811</v>
+        <v>0.0339715375074876</v>
       </c>
       <c r="D101">
-        <v>-0.04292991957666294</v>
+        <v>-0.002652252018419201</v>
       </c>
       <c r="E101">
-        <v>0.01642066660371562</v>
+        <v>-0.03582898769226055</v>
       </c>
       <c r="F101">
-        <v>0.02769664179629619</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.07749827949922257</v>
+      </c>
+      <c r="G101">
+        <v>0.09767430513143578</v>
+      </c>
+      <c r="H101">
+        <v>0.01875586897153956</v>
+      </c>
+      <c r="I101">
+        <v>-0.1290081186431176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09589440536794645</v>
+        <v>0.1158446945372061</v>
       </c>
       <c r="C102">
-        <v>-0.007792336658628045</v>
+        <v>0.03300971525377805</v>
       </c>
       <c r="D102">
-        <v>-0.05893219693673892</v>
+        <v>-0.002739723921683857</v>
       </c>
       <c r="E102">
-        <v>0.04183347576612951</v>
+        <v>-0.05283920127109441</v>
       </c>
       <c r="F102">
-        <v>-0.09303983334551043</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1156687455560568</v>
+      </c>
+      <c r="G102">
+        <v>0.02572077032986276</v>
+      </c>
+      <c r="H102">
+        <v>0.008086849233803796</v>
+      </c>
+      <c r="I102">
+        <v>0.028919694198647</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.0209978766788423</v>
+        <v>0.02798150948592094</v>
       </c>
       <c r="C103">
-        <v>-0.001765127533522199</v>
+        <v>0.01312468387618243</v>
       </c>
       <c r="D103">
-        <v>-0.02159012769559816</v>
+        <v>-0.008468280771982301</v>
       </c>
       <c r="E103">
-        <v>0.009989112414389887</v>
+        <v>-0.01872043011702357</v>
       </c>
       <c r="F103">
-        <v>-0.02895572085248218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02231712667961368</v>
+      </c>
+      <c r="G103">
+        <v>0.01957400614821388</v>
+      </c>
+      <c r="H103">
+        <v>-0.00606296081594857</v>
+      </c>
+      <c r="I103">
+        <v>0.01345603655646176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
